--- a/data/pca/factorExposure/factorExposure_2011-07-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02427333453413454</v>
+        <v>-0.0152785069416883</v>
       </c>
       <c r="C2">
-        <v>0.004190661137556751</v>
+        <v>0.00179001073209192</v>
       </c>
       <c r="D2">
-        <v>0.0599184590423632</v>
+        <v>0.001693411329677974</v>
       </c>
       <c r="E2">
-        <v>0.03280181849443485</v>
+        <v>0.03565744011876728</v>
       </c>
       <c r="F2">
-        <v>-0.02100977476595752</v>
+        <v>0.007454548744925507</v>
       </c>
       <c r="G2">
-        <v>0.04146734185484463</v>
+        <v>-0.02567901284717931</v>
       </c>
       <c r="H2">
-        <v>0.02206159989430487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02879397864860254</v>
+      </c>
+      <c r="I2">
+        <v>-0.0116339476763685</v>
+      </c>
+      <c r="J2">
+        <v>-0.06750077977524437</v>
+      </c>
+      <c r="K2">
+        <v>-0.004065344361398649</v>
+      </c>
+      <c r="L2">
+        <v>-0.06275134045813525</v>
+      </c>
+      <c r="M2">
+        <v>0.03675718300868143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06762772945019475</v>
+        <v>-0.09730400798324479</v>
       </c>
       <c r="C4">
-        <v>-0.06666113862418424</v>
+        <v>-0.07297213075016155</v>
       </c>
       <c r="D4">
-        <v>0.02588925719838095</v>
+        <v>0.0212093118908067</v>
       </c>
       <c r="E4">
-        <v>0.03564389778152553</v>
+        <v>0.04342964949797929</v>
       </c>
       <c r="F4">
-        <v>0.04096658799309694</v>
+        <v>0.09727002851987762</v>
       </c>
       <c r="G4">
-        <v>0.01973319474551527</v>
+        <v>-0.01264432268829165</v>
       </c>
       <c r="H4">
-        <v>-0.02731489557042314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.06824058097591158</v>
+      </c>
+      <c r="I4">
+        <v>-0.03550601251731939</v>
+      </c>
+      <c r="J4">
+        <v>0.04447546073816803</v>
+      </c>
+      <c r="K4">
+        <v>0.02991133033308719</v>
+      </c>
+      <c r="L4">
+        <v>-0.02979270524622172</v>
+      </c>
+      <c r="M4">
+        <v>-0.03191103275370079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1276332408576608</v>
+        <v>-0.1309629867684624</v>
       </c>
       <c r="C6">
-        <v>-0.04452733525080015</v>
+        <v>-0.04783559451381413</v>
       </c>
       <c r="D6">
-        <v>0.06290747770711518</v>
+        <v>0.002268617543025168</v>
       </c>
       <c r="E6">
-        <v>0.08176274786518978</v>
+        <v>0.02878446567598257</v>
       </c>
       <c r="F6">
-        <v>0.06927210852647377</v>
+        <v>0.0256612618881925</v>
       </c>
       <c r="G6">
-        <v>-0.0631956324270551</v>
+        <v>0.1631000974838793</v>
       </c>
       <c r="H6">
-        <v>0.09481919919402712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.05305956361750765</v>
+      </c>
+      <c r="I6">
+        <v>-0.4307426297054414</v>
+      </c>
+      <c r="J6">
+        <v>0.09030961107174021</v>
+      </c>
+      <c r="K6">
+        <v>-0.008876880476801054</v>
+      </c>
+      <c r="L6">
+        <v>0.1432754100807793</v>
+      </c>
+      <c r="M6">
+        <v>-0.02560222893571655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06498462719498868</v>
+        <v>-0.06793854484376974</v>
       </c>
       <c r="C7">
-        <v>-0.05074165473852102</v>
+        <v>-0.07280706664425168</v>
       </c>
       <c r="D7">
-        <v>0.05544604375276559</v>
+        <v>0.0001975351701394921</v>
       </c>
       <c r="E7">
-        <v>0.02802211601897576</v>
+        <v>0.04546507818944789</v>
       </c>
       <c r="F7">
-        <v>0.03904921123710709</v>
+        <v>0.01826987682774647</v>
       </c>
       <c r="G7">
-        <v>-0.03557279305125256</v>
+        <v>-0.0008692454236823382</v>
       </c>
       <c r="H7">
-        <v>0.009267333908773464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.06485479973063653</v>
+      </c>
+      <c r="I7">
+        <v>0.05525990313346391</v>
+      </c>
+      <c r="J7">
+        <v>0.02335454991168951</v>
+      </c>
+      <c r="K7">
+        <v>0.03023000029237156</v>
+      </c>
+      <c r="L7">
+        <v>-0.04805428725635604</v>
+      </c>
+      <c r="M7">
+        <v>0.07840615202151995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02192427853986499</v>
+        <v>-0.03488430162747603</v>
       </c>
       <c r="C8">
-        <v>-0.01350956974996644</v>
+        <v>-0.008958564812094024</v>
       </c>
       <c r="D8">
-        <v>0.03410109418951472</v>
+        <v>0.01730702664095424</v>
       </c>
       <c r="E8">
-        <v>0.07789860293227067</v>
+        <v>0.05179593933581529</v>
       </c>
       <c r="F8">
-        <v>-0.01343652689879065</v>
+        <v>0.102830445294194</v>
       </c>
       <c r="G8">
-        <v>-0.007264577004937708</v>
+        <v>0.009075695638395885</v>
       </c>
       <c r="H8">
-        <v>0.03501403483530835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.06189483461572415</v>
+      </c>
+      <c r="I8">
+        <v>-0.02880098039831617</v>
+      </c>
+      <c r="J8">
+        <v>0.05462759697748958</v>
+      </c>
+      <c r="K8">
+        <v>0.0634978657473062</v>
+      </c>
+      <c r="L8">
+        <v>-0.01156063529706113</v>
+      </c>
+      <c r="M8">
+        <v>-0.06142047533105675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.06889288243482168</v>
+        <v>-0.08331918247325308</v>
       </c>
       <c r="C9">
-        <v>-0.08133198624376144</v>
+        <v>-0.06863391429888648</v>
       </c>
       <c r="D9">
-        <v>0.03252117591762996</v>
+        <v>0.001143869462597638</v>
       </c>
       <c r="E9">
-        <v>0.02675021455481872</v>
+        <v>0.02771409994692779</v>
       </c>
       <c r="F9">
-        <v>0.01969968549361461</v>
+        <v>0.09960802074777249</v>
       </c>
       <c r="G9">
-        <v>0.01879136957572712</v>
+        <v>-0.0111884281655232</v>
       </c>
       <c r="H9">
-        <v>-0.02218730855444684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.07561252119397331</v>
+      </c>
+      <c r="I9">
+        <v>-0.02083409876548961</v>
+      </c>
+      <c r="J9">
+        <v>0.01770766081797738</v>
+      </c>
+      <c r="K9">
+        <v>0.02621454053904753</v>
+      </c>
+      <c r="L9">
+        <v>-0.01041926705206909</v>
+      </c>
+      <c r="M9">
+        <v>-0.005647261362562204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.0614037899999306</v>
+        <v>-0.107386667438475</v>
       </c>
       <c r="C10">
-        <v>0.1359038849574812</v>
+        <v>0.1700515327421763</v>
       </c>
       <c r="D10">
-        <v>0.05787585273785277</v>
+        <v>0.007882921189081647</v>
       </c>
       <c r="E10">
-        <v>0.02819195529323082</v>
+        <v>0.04707683570300271</v>
       </c>
       <c r="F10">
-        <v>0.0128461564138677</v>
+        <v>-0.01733659275103677</v>
       </c>
       <c r="G10">
-        <v>-0.04229557975266102</v>
+        <v>0.01215531275727806</v>
       </c>
       <c r="H10">
-        <v>0.04939392937438847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.002583250350585509</v>
+      </c>
+      <c r="I10">
+        <v>0.04549649056146778</v>
+      </c>
+      <c r="J10">
+        <v>-0.04305044874785263</v>
+      </c>
+      <c r="K10">
+        <v>0.00229028926549315</v>
+      </c>
+      <c r="L10">
+        <v>0.02509729797092495</v>
+      </c>
+      <c r="M10">
+        <v>0.04732083092722461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06375401801330463</v>
+        <v>-0.06823532286088414</v>
       </c>
       <c r="C11">
-        <v>-0.08868562352197461</v>
+        <v>-0.07242516624314171</v>
       </c>
       <c r="D11">
-        <v>0.04200086578132893</v>
+        <v>-0.03196847100603467</v>
       </c>
       <c r="E11">
-        <v>0.004872730026883943</v>
+        <v>0.02008961106250287</v>
       </c>
       <c r="F11">
-        <v>-0.03091573825429386</v>
+        <v>0.1023432678685342</v>
       </c>
       <c r="G11">
-        <v>0.02417678865345831</v>
+        <v>-0.01375608024202114</v>
       </c>
       <c r="H11">
-        <v>-0.01450904306389582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05822793502482006</v>
+      </c>
+      <c r="I11">
+        <v>0.07307282076993922</v>
+      </c>
+      <c r="J11">
+        <v>-0.04749624397458486</v>
+      </c>
+      <c r="K11">
+        <v>0.009841342499047015</v>
+      </c>
+      <c r="L11">
+        <v>0.0428268641228411</v>
+      </c>
+      <c r="M11">
+        <v>0.03011184045897359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05824505092719055</v>
+        <v>-0.0694901401697426</v>
       </c>
       <c r="C12">
-        <v>-0.05259333350945425</v>
+        <v>-0.06228144125324101</v>
       </c>
       <c r="D12">
-        <v>0.02004076188193959</v>
+        <v>-0.02891661388682001</v>
       </c>
       <c r="E12">
-        <v>0.01324150371458919</v>
+        <v>0.01085178566078397</v>
       </c>
       <c r="F12">
-        <v>0.0136506158926368</v>
+        <v>0.1111433692662718</v>
       </c>
       <c r="G12">
-        <v>-0.01300526650023636</v>
+        <v>-0.01081132101070531</v>
       </c>
       <c r="H12">
-        <v>-0.02094562387319391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.06992181068192183</v>
+      </c>
+      <c r="I12">
+        <v>0.06445772640485282</v>
+      </c>
+      <c r="J12">
+        <v>-0.0459430414995488</v>
+      </c>
+      <c r="K12">
+        <v>0.07565993611034572</v>
+      </c>
+      <c r="L12">
+        <v>0.04994123942552482</v>
+      </c>
+      <c r="M12">
+        <v>0.03787835260247187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.04868625038805698</v>
+        <v>-0.04972740390314596</v>
       </c>
       <c r="C13">
-        <v>-0.0266424516229385</v>
+        <v>-0.0369920892030338</v>
       </c>
       <c r="D13">
-        <v>0.009281541294137148</v>
+        <v>0.01867712413047425</v>
       </c>
       <c r="E13">
-        <v>0.01127263559464685</v>
+        <v>0.01995148107787926</v>
       </c>
       <c r="F13">
-        <v>-0.003216648768818813</v>
+        <v>0.03950723830811185</v>
       </c>
       <c r="G13">
-        <v>0.02587832784251671</v>
+        <v>-0.0181585010345055</v>
       </c>
       <c r="H13">
-        <v>-0.04617713371299861</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.04154903002383962</v>
+      </c>
+      <c r="I13">
+        <v>0.009318937866053941</v>
+      </c>
+      <c r="J13">
+        <v>0.05676175265944126</v>
+      </c>
+      <c r="K13">
+        <v>0.05070117847973456</v>
+      </c>
+      <c r="L13">
+        <v>-0.02512758379283005</v>
+      </c>
+      <c r="M13">
+        <v>-0.01565885604131602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04208731077660798</v>
+        <v>-0.04550231979407912</v>
       </c>
       <c r="C14">
-        <v>-0.01928639900059551</v>
+        <v>-0.02751444543945381</v>
       </c>
       <c r="D14">
-        <v>0.01763156809722358</v>
+        <v>-0.00941098428206886</v>
       </c>
       <c r="E14">
-        <v>0.007522846079989029</v>
+        <v>0.01553411774518319</v>
       </c>
       <c r="F14">
-        <v>0.05281116657609428</v>
+        <v>0.05180395535473441</v>
       </c>
       <c r="G14">
-        <v>0.006296184773020738</v>
+        <v>-0.03881281970251634</v>
       </c>
       <c r="H14">
-        <v>0.03466545969754693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.0568133006991562</v>
+      </c>
+      <c r="I14">
+        <v>-0.02968935093874697</v>
+      </c>
+      <c r="J14">
+        <v>0.04578712520316241</v>
+      </c>
+      <c r="K14">
+        <v>0.0009529757690367506</v>
+      </c>
+      <c r="L14">
+        <v>-0.01473632147716585</v>
+      </c>
+      <c r="M14">
+        <v>0.005870430912542695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03486115662883987</v>
+        <v>-0.03215719691181939</v>
       </c>
       <c r="C15">
-        <v>0.004651403482217829</v>
+        <v>-0.009358190057841775</v>
       </c>
       <c r="D15">
-        <v>-0.007236219630549974</v>
+        <v>0.05742885569241619</v>
       </c>
       <c r="E15">
-        <v>0.02717571115152882</v>
+        <v>0.004610830929555126</v>
       </c>
       <c r="F15">
-        <v>0.02929761996814794</v>
+        <v>-0.002065622518926742</v>
       </c>
       <c r="G15">
-        <v>0.004279925793235675</v>
+        <v>0.01249808015289013</v>
       </c>
       <c r="H15">
-        <v>-0.01631972573310988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0322405535348133</v>
+      </c>
+      <c r="I15">
+        <v>-0.02634599127733948</v>
+      </c>
+      <c r="J15">
+        <v>0.08367430674721828</v>
+      </c>
+      <c r="K15">
+        <v>0.01417611332589824</v>
+      </c>
+      <c r="L15">
+        <v>-0.01461756300917195</v>
+      </c>
+      <c r="M15">
+        <v>0.003555619474157043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04849677090205376</v>
+        <v>-0.07040563303433053</v>
       </c>
       <c r="C16">
-        <v>-0.079063643339291</v>
+        <v>-0.07837804714138147</v>
       </c>
       <c r="D16">
-        <v>0.02341707469819827</v>
+        <v>-0.01963029672974556</v>
       </c>
       <c r="E16">
-        <v>0.02495002373792863</v>
+        <v>0.01938628298364164</v>
       </c>
       <c r="F16">
-        <v>0.01884059637615944</v>
+        <v>0.1049911417580297</v>
       </c>
       <c r="G16">
-        <v>0.02391200548420103</v>
+        <v>-0.01493957797850897</v>
       </c>
       <c r="H16">
-        <v>0.001421268097474546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.07826530139053238</v>
+      </c>
+      <c r="I16">
+        <v>0.06469179668020486</v>
+      </c>
+      <c r="J16">
+        <v>-0.04117060244913388</v>
+      </c>
+      <c r="K16">
+        <v>0.02647208767124598</v>
+      </c>
+      <c r="L16">
+        <v>0.01922436119755789</v>
+      </c>
+      <c r="M16">
+        <v>0.04060474736206032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.03798524079056913</v>
+        <v>-0.04180809422253182</v>
       </c>
       <c r="C20">
-        <v>-0.0448082439451293</v>
+        <v>-0.03405229429800911</v>
       </c>
       <c r="D20">
-        <v>0.02566333435525762</v>
+        <v>0.02152918388266533</v>
       </c>
       <c r="E20">
-        <v>0.01685218575085651</v>
+        <v>0.02429110747517604</v>
       </c>
       <c r="F20">
-        <v>0.02254600887156506</v>
+        <v>0.04658680917654123</v>
       </c>
       <c r="G20">
-        <v>0.02481020960166907</v>
+        <v>-0.02386356710054909</v>
       </c>
       <c r="H20">
-        <v>-0.02037922429139537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.0650375942906497</v>
+      </c>
+      <c r="I20">
+        <v>0.002023646585383861</v>
+      </c>
+      <c r="J20">
+        <v>0.007846642517851596</v>
+      </c>
+      <c r="K20">
+        <v>0.07745244646949116</v>
+      </c>
+      <c r="L20">
+        <v>-0.01086877770376462</v>
+      </c>
+      <c r="M20">
+        <v>0.01189927550425895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.009612978589306332</v>
+        <v>-0.02486964586225286</v>
       </c>
       <c r="C21">
-        <v>-0.01158205942428197</v>
+        <v>-0.01195509641331783</v>
       </c>
       <c r="D21">
-        <v>-0.02004714927642533</v>
+        <v>0.01876188396599386</v>
       </c>
       <c r="E21">
-        <v>0.07881390574471976</v>
+        <v>0.006908983553767155</v>
       </c>
       <c r="F21">
-        <v>-0.005076439079583183</v>
+        <v>0.05238776623597449</v>
       </c>
       <c r="G21">
-        <v>-0.08396331838179623</v>
+        <v>0.08975231483060622</v>
       </c>
       <c r="H21">
-        <v>-0.01341501232798727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.04623510021482106</v>
+      </c>
+      <c r="I21">
+        <v>0.0003909847521060131</v>
+      </c>
+      <c r="J21">
+        <v>0.07167767117505175</v>
+      </c>
+      <c r="K21">
+        <v>0.03083048923722167</v>
+      </c>
+      <c r="L21">
+        <v>0.03427598264391187</v>
+      </c>
+      <c r="M21">
+        <v>-0.005487005837848352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.03062430281442763</v>
+        <v>-0.04439286161790452</v>
       </c>
       <c r="C22">
-        <v>-0.06442482997302769</v>
+        <v>-0.03722824488376647</v>
       </c>
       <c r="D22">
-        <v>-0.1232446205698244</v>
+        <v>0.656248530844589</v>
       </c>
       <c r="E22">
-        <v>0.4343611745957783</v>
+        <v>0.07021961974192568</v>
       </c>
       <c r="F22">
-        <v>0.1807474882097991</v>
+        <v>-0.07928329404274932</v>
       </c>
       <c r="G22">
-        <v>0.02525975037241891</v>
+        <v>-0.01195999896549548</v>
       </c>
       <c r="H22">
-        <v>-0.3117822435788415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.03816144984350059</v>
+      </c>
+      <c r="I22">
+        <v>0.01295712672616816</v>
+      </c>
+      <c r="J22">
+        <v>-0.09411137447724008</v>
+      </c>
+      <c r="K22">
+        <v>-0.03675713827371588</v>
+      </c>
+      <c r="L22">
+        <v>-0.05761856255373311</v>
+      </c>
+      <c r="M22">
+        <v>-0.02334203725863188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.03152356956931983</v>
+        <v>-0.04511955413845022</v>
       </c>
       <c r="C23">
-        <v>-0.06328385151097253</v>
+        <v>-0.0374522573176197</v>
       </c>
       <c r="D23">
-        <v>-0.1227533704773559</v>
+        <v>0.6578835146031983</v>
       </c>
       <c r="E23">
-        <v>0.4360689569805823</v>
+        <v>0.07120755236383487</v>
       </c>
       <c r="F23">
-        <v>0.1783471083962484</v>
+        <v>-0.07463424885714841</v>
       </c>
       <c r="G23">
-        <v>0.02428035191060444</v>
+        <v>-0.01220861187546138</v>
       </c>
       <c r="H23">
-        <v>-0.3079601599385058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.03921665058113384</v>
+      </c>
+      <c r="I23">
+        <v>0.007629362376010765</v>
+      </c>
+      <c r="J23">
+        <v>-0.09430847775973207</v>
+      </c>
+      <c r="K23">
+        <v>-0.03863243526899249</v>
+      </c>
+      <c r="L23">
+        <v>-0.0562376162712708</v>
+      </c>
+      <c r="M23">
+        <v>-0.02146016643740833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.06881782354779856</v>
+        <v>-0.07502754555368213</v>
       </c>
       <c r="C24">
-        <v>-0.07987598308744849</v>
+        <v>-0.07612768019480974</v>
       </c>
       <c r="D24">
-        <v>0.03983074784174933</v>
+        <v>-0.01663558787769987</v>
       </c>
       <c r="E24">
-        <v>0.04347108438876059</v>
+        <v>0.02161748873223487</v>
       </c>
       <c r="F24">
-        <v>-0.01335104530615883</v>
+        <v>0.1099626589883277</v>
       </c>
       <c r="G24">
-        <v>0.01313110962978387</v>
+        <v>-0.00813571592621485</v>
       </c>
       <c r="H24">
-        <v>-0.00017412110999631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.06280175687800138</v>
+      </c>
+      <c r="I24">
+        <v>0.04461905398113497</v>
+      </c>
+      <c r="J24">
+        <v>-0.05315474613607097</v>
+      </c>
+      <c r="K24">
+        <v>0.03020716782907637</v>
+      </c>
+      <c r="L24">
+        <v>0.04242225333029581</v>
+      </c>
+      <c r="M24">
+        <v>0.01179152297977241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06031466291110643</v>
+        <v>-0.07199819351391482</v>
       </c>
       <c r="C25">
-        <v>-0.04106590662627804</v>
+        <v>-0.04878510939487837</v>
       </c>
       <c r="D25">
-        <v>0.04091294153044676</v>
+        <v>-0.02997481268155377</v>
       </c>
       <c r="E25">
-        <v>0.04316528694221734</v>
+        <v>0.02398959760462301</v>
       </c>
       <c r="F25">
-        <v>0.002279414193432174</v>
+        <v>0.1112360105563461</v>
       </c>
       <c r="G25">
-        <v>0.03284787900556178</v>
+        <v>-0.03121034867908167</v>
       </c>
       <c r="H25">
-        <v>0.02021679799710009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.07633754855943264</v>
+      </c>
+      <c r="I25">
+        <v>0.04074779013482869</v>
+      </c>
+      <c r="J25">
+        <v>-0.07430410706193681</v>
+      </c>
+      <c r="K25">
+        <v>0.02306642688197923</v>
+      </c>
+      <c r="L25">
+        <v>0.03380039392800106</v>
+      </c>
+      <c r="M25">
+        <v>0.03268126310471345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03547676891726496</v>
+        <v>-0.03993463109020545</v>
       </c>
       <c r="C26">
-        <v>-0.0241689060070682</v>
+        <v>-0.02390245835930383</v>
       </c>
       <c r="D26">
-        <v>0.03461154033045788</v>
+        <v>0.01530999585568648</v>
       </c>
       <c r="E26">
-        <v>0.0002547616052685672</v>
+        <v>0.005800732442126105</v>
       </c>
       <c r="F26">
-        <v>0.0365782967612784</v>
+        <v>0.04212082621139337</v>
       </c>
       <c r="G26">
-        <v>-0.008605705538073247</v>
+        <v>-0.0009116665023438837</v>
       </c>
       <c r="H26">
-        <v>-0.02392639178621921</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.04449511100824011</v>
+      </c>
+      <c r="I26">
+        <v>0.01005549263571872</v>
+      </c>
+      <c r="J26">
+        <v>0.1226037985273127</v>
+      </c>
+      <c r="K26">
+        <v>0.0168195896859301</v>
+      </c>
+      <c r="L26">
+        <v>-0.03434290806677025</v>
+      </c>
+      <c r="M26">
+        <v>0.1086443751516607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1152441540245658</v>
+        <v>-0.1385599244842988</v>
       </c>
       <c r="C28">
-        <v>0.2940866269387347</v>
+        <v>0.287991235272998</v>
       </c>
       <c r="D28">
-        <v>0.05192304070761743</v>
+        <v>-0.001687109651968299</v>
       </c>
       <c r="E28">
-        <v>0.002037290265550153</v>
+        <v>0.02931193865581838</v>
       </c>
       <c r="F28">
-        <v>0.03084292489343594</v>
+        <v>-2.139557987839321e-05</v>
       </c>
       <c r="G28">
-        <v>-0.0681407949589147</v>
+        <v>0.02681093118698229</v>
       </c>
       <c r="H28">
-        <v>0.005382421335131182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.001635524543487075</v>
+      </c>
+      <c r="I28">
+        <v>0.009740878038458431</v>
+      </c>
+      <c r="J28">
+        <v>0.03900214973976217</v>
+      </c>
+      <c r="K28">
+        <v>0.001557313284630032</v>
+      </c>
+      <c r="L28">
+        <v>-0.02485506874436418</v>
+      </c>
+      <c r="M28">
+        <v>-0.04681172974245849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04602720625452813</v>
+        <v>-0.04515290713466996</v>
       </c>
       <c r="C29">
-        <v>-0.008277326018436079</v>
+        <v>-0.02265550474342153</v>
       </c>
       <c r="D29">
-        <v>0.01114975805770638</v>
+        <v>-0.0009028296723601393</v>
       </c>
       <c r="E29">
-        <v>0.02858469679542081</v>
+        <v>0.01936290719485741</v>
       </c>
       <c r="F29">
-        <v>0.0387704134761284</v>
+        <v>0.05037679654446381</v>
       </c>
       <c r="G29">
-        <v>0.02012699559838342</v>
+        <v>-0.04955577767360956</v>
       </c>
       <c r="H29">
-        <v>0.01013574231751005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.04661470537124798</v>
+      </c>
+      <c r="I29">
+        <v>-0.02428094791392681</v>
+      </c>
+      <c r="J29">
+        <v>0.0246186376981745</v>
+      </c>
+      <c r="K29">
+        <v>0.009649413286627093</v>
+      </c>
+      <c r="L29">
+        <v>-0.02109111694514008</v>
+      </c>
+      <c r="M29">
+        <v>0.008610608522174251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1184041459268085</v>
+        <v>-0.1030826580018462</v>
       </c>
       <c r="C30">
-        <v>-0.07428196988832526</v>
+        <v>-0.06771363768348301</v>
       </c>
       <c r="D30">
-        <v>0.06993721676855941</v>
+        <v>-0.0004643869647661902</v>
       </c>
       <c r="E30">
-        <v>0.05186185474944412</v>
+        <v>0.04644694071364573</v>
       </c>
       <c r="F30">
-        <v>0.05068946322567248</v>
+        <v>0.1659660963578924</v>
       </c>
       <c r="G30">
-        <v>-0.01238383007007432</v>
+        <v>0.04090026062882118</v>
       </c>
       <c r="H30">
-        <v>-0.007820208086810046</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.152502232610734</v>
+      </c>
+      <c r="I30">
+        <v>-0.02060495008833563</v>
+      </c>
+      <c r="J30">
+        <v>-0.04720270061129875</v>
+      </c>
+      <c r="K30">
+        <v>0.1991424424305049</v>
+      </c>
+      <c r="L30">
+        <v>-0.2955790937387265</v>
+      </c>
+      <c r="M30">
+        <v>-0.5055497716376313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04811457738523732</v>
+        <v>-0.03433299126376896</v>
       </c>
       <c r="C31">
-        <v>-0.02041468033876851</v>
+        <v>-0.04247694331238679</v>
       </c>
       <c r="D31">
-        <v>0.003045920250634915</v>
+        <v>0.005486225721016784</v>
       </c>
       <c r="E31">
-        <v>-0.005417596966764136</v>
+        <v>-0.00677085768044336</v>
       </c>
       <c r="F31">
-        <v>0.02228243190335532</v>
+        <v>0.0173539587028306</v>
       </c>
       <c r="G31">
-        <v>0.02325878946876625</v>
+        <v>-0.05055839291037888</v>
       </c>
       <c r="H31">
-        <v>-0.03662130605125435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.02938784658299568</v>
+      </c>
+      <c r="I31">
+        <v>-0.003134033395418485</v>
+      </c>
+      <c r="J31">
+        <v>0.01204892966145336</v>
+      </c>
+      <c r="K31">
+        <v>0.0325933296628237</v>
+      </c>
+      <c r="L31">
+        <v>0.01248584002731102</v>
+      </c>
+      <c r="M31">
+        <v>0.01010434520047285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02305244911397136</v>
+        <v>-0.04709410883829687</v>
       </c>
       <c r="C32">
-        <v>0.005187474689700172</v>
+        <v>0.002699482764104446</v>
       </c>
       <c r="D32">
-        <v>-0.0386248588977693</v>
+        <v>0.001747062522496642</v>
       </c>
       <c r="E32">
-        <v>0.08118888167722903</v>
+        <v>-0.002417114104188762</v>
       </c>
       <c r="F32">
-        <v>0.0004434364079748314</v>
+        <v>0.084857356325136</v>
       </c>
       <c r="G32">
-        <v>0.01280327415765469</v>
+        <v>0.004571971391220488</v>
       </c>
       <c r="H32">
-        <v>-0.0545699956706323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.01217057539619025</v>
+      </c>
+      <c r="I32">
+        <v>0.05005211072650117</v>
+      </c>
+      <c r="J32">
+        <v>0.06863958413550796</v>
+      </c>
+      <c r="K32">
+        <v>0.01677091308663317</v>
+      </c>
+      <c r="L32">
+        <v>-0.1010329541657173</v>
+      </c>
+      <c r="M32">
+        <v>-0.06553046384720464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.0977914039747959</v>
+        <v>-0.09838125213979958</v>
       </c>
       <c r="C33">
-        <v>-0.06070752241424938</v>
+        <v>-0.06778938898422816</v>
       </c>
       <c r="D33">
-        <v>0.01106840062366356</v>
+        <v>-0.005563768420439283</v>
       </c>
       <c r="E33">
-        <v>0.003270677980865536</v>
+        <v>-0.01648142538846643</v>
       </c>
       <c r="F33">
-        <v>0.02123618516708705</v>
+        <v>0.06844361899287707</v>
       </c>
       <c r="G33">
-        <v>0.03392126078946212</v>
+        <v>-0.04997068793506126</v>
       </c>
       <c r="H33">
-        <v>-0.0357814315873102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.04404277317483502</v>
+      </c>
+      <c r="I33">
+        <v>-0.01291290298388159</v>
+      </c>
+      <c r="J33">
+        <v>0.02909572046015837</v>
+      </c>
+      <c r="K33">
+        <v>0.02816026710921385</v>
+      </c>
+      <c r="L33">
+        <v>0.02008177781234234</v>
+      </c>
+      <c r="M33">
+        <v>-0.04853226468443078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05109438327554461</v>
+        <v>-0.06299576895866663</v>
       </c>
       <c r="C34">
-        <v>-0.07465401113104154</v>
+        <v>-0.06372263624397127</v>
       </c>
       <c r="D34">
-        <v>0.02297314980218847</v>
+        <v>-0.02715091792350003</v>
       </c>
       <c r="E34">
-        <v>0.0464680385224069</v>
+        <v>0.01162346536957562</v>
       </c>
       <c r="F34">
-        <v>0.008564100682078442</v>
+        <v>0.09676325155641359</v>
       </c>
       <c r="G34">
-        <v>0.01694640162428834</v>
+        <v>-0.02609989129134483</v>
       </c>
       <c r="H34">
-        <v>0.001132863855372285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.06422025923141499</v>
+      </c>
+      <c r="I34">
+        <v>0.03757079404178543</v>
+      </c>
+      <c r="J34">
+        <v>-0.0449142313931905</v>
+      </c>
+      <c r="K34">
+        <v>0.03087759169782369</v>
+      </c>
+      <c r="L34">
+        <v>0.04249599351944437</v>
+      </c>
+      <c r="M34">
+        <v>0.05061124976105479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.0370396129665114</v>
+        <v>-0.02998150699739644</v>
       </c>
       <c r="C35">
-        <v>-0.01699903858318109</v>
+        <v>-0.02356802626775955</v>
       </c>
       <c r="D35">
-        <v>0.006039389365738387</v>
+        <v>-0.001099506441492916</v>
       </c>
       <c r="E35">
-        <v>0.02395073566501845</v>
+        <v>-0.001546749295388143</v>
       </c>
       <c r="F35">
-        <v>0.03378210311751092</v>
+        <v>0.01996549286403355</v>
       </c>
       <c r="G35">
-        <v>0.02726734802591081</v>
+        <v>-0.02031796152627612</v>
       </c>
       <c r="H35">
-        <v>-0.04003982446645276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.05960519787832361</v>
+      </c>
+      <c r="I35">
+        <v>0.0271268898318979</v>
+      </c>
+      <c r="J35">
+        <v>-0.01176283030141468</v>
+      </c>
+      <c r="K35">
+        <v>0.03547630489436154</v>
+      </c>
+      <c r="L35">
+        <v>-0.02571789620862678</v>
+      </c>
+      <c r="M35">
+        <v>0.01057803252297295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02505926965983929</v>
+        <v>-0.03034789188166084</v>
       </c>
       <c r="C36">
-        <v>-0.01387285002783267</v>
+        <v>-0.01811266755768142</v>
       </c>
       <c r="D36">
-        <v>0.02327680971468115</v>
+        <v>0.01311028042196699</v>
       </c>
       <c r="E36">
-        <v>0.02906134559032698</v>
+        <v>0.01847897721298561</v>
       </c>
       <c r="F36">
-        <v>0.02071336276183073</v>
+        <v>0.05497195798150308</v>
       </c>
       <c r="G36">
-        <v>0.01728540559209792</v>
+        <v>-0.0192676972821555</v>
       </c>
       <c r="H36">
-        <v>-0.01322950304449788</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.05468596871426925</v>
+      </c>
+      <c r="I36">
+        <v>-0.006627375938109778</v>
+      </c>
+      <c r="J36">
+        <v>0.03209507756183188</v>
+      </c>
+      <c r="K36">
+        <v>0.03201458917725987</v>
+      </c>
+      <c r="L36">
+        <v>0.01372099952229454</v>
+      </c>
+      <c r="M36">
+        <v>0.05371586086823894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.03988697857160294</v>
+        <v>-0.03374106842942111</v>
       </c>
       <c r="C38">
-        <v>-0.02616889914198227</v>
+        <v>-0.0472398023400341</v>
       </c>
       <c r="D38">
-        <v>-0.03308051395136308</v>
+        <v>0.0249942923347006</v>
       </c>
       <c r="E38">
-        <v>0.04672782067242343</v>
+        <v>0.002866532185936875</v>
       </c>
       <c r="F38">
-        <v>0.006821852169957897</v>
+        <v>-0.03784242091492616</v>
       </c>
       <c r="G38">
-        <v>-0.009092853917843235</v>
+        <v>-0.02169976929905433</v>
       </c>
       <c r="H38">
-        <v>-0.03666500668936369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.07243236342619988</v>
+      </c>
+      <c r="I38">
+        <v>0.02762499162033013</v>
+      </c>
+      <c r="J38">
+        <v>0.05795177052654249</v>
+      </c>
+      <c r="K38">
+        <v>-0.08758923430324217</v>
+      </c>
+      <c r="L38">
+        <v>-0.03946671555953004</v>
+      </c>
+      <c r="M38">
+        <v>-0.1589672111920455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09267976510580797</v>
+        <v>-0.09509867944491902</v>
       </c>
       <c r="C39">
-        <v>-0.09535654166622383</v>
+        <v>-0.08478045221066678</v>
       </c>
       <c r="D39">
-        <v>0.01411088552518463</v>
+        <v>-0.07601917274806638</v>
       </c>
       <c r="E39">
-        <v>0.03956531366497151</v>
+        <v>0.002745290274504881</v>
       </c>
       <c r="F39">
-        <v>-0.01560110989551062</v>
+        <v>0.1476135788882605</v>
       </c>
       <c r="G39">
-        <v>0.005865348623936139</v>
+        <v>-0.02335186503300981</v>
       </c>
       <c r="H39">
-        <v>0.01178817840231618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.09434034802147979</v>
+      </c>
+      <c r="I39">
+        <v>0.1432078092716062</v>
+      </c>
+      <c r="J39">
+        <v>-0.1145626109445341</v>
+      </c>
+      <c r="K39">
+        <v>0.06325138053265197</v>
+      </c>
+      <c r="L39">
+        <v>-0.07239307167254336</v>
+      </c>
+      <c r="M39">
+        <v>-0.08399653421714874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.06096635917816527</v>
+        <v>-0.03879827553401488</v>
       </c>
       <c r="C40">
-        <v>-0.02137971278299419</v>
+        <v>-0.05484872820499383</v>
       </c>
       <c r="D40">
-        <v>-0.02685678105497669</v>
+        <v>0.04870131494201457</v>
       </c>
       <c r="E40">
-        <v>0.1777185927454195</v>
+        <v>-0.01260030945251311</v>
       </c>
       <c r="F40">
-        <v>0.0639777263295577</v>
+        <v>0.1312186967667133</v>
       </c>
       <c r="G40">
-        <v>0.03204538794588627</v>
+        <v>0.05627067516626353</v>
       </c>
       <c r="H40">
-        <v>-0.01036763408566228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.01711415444324623</v>
+      </c>
+      <c r="I40">
+        <v>0.06856278844607688</v>
+      </c>
+      <c r="J40">
+        <v>0.01496736279903421</v>
+      </c>
+      <c r="K40">
+        <v>0.03412162151968151</v>
+      </c>
+      <c r="L40">
+        <v>-0.08158444283064951</v>
+      </c>
+      <c r="M40">
+        <v>-0.02763276433050468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04287861061452199</v>
+        <v>-0.03664228684153948</v>
       </c>
       <c r="C41">
-        <v>-0.04771032427643571</v>
+        <v>-0.03667948834150984</v>
       </c>
       <c r="D41">
-        <v>0.004859270402697474</v>
+        <v>-0.0182890035827478</v>
       </c>
       <c r="E41">
-        <v>0.006071115977435385</v>
+        <v>-0.001489247802217529</v>
       </c>
       <c r="F41">
-        <v>0.01479093892286643</v>
+        <v>0.01819675814057963</v>
       </c>
       <c r="G41">
-        <v>0.01537104813625166</v>
+        <v>-0.02103605337920269</v>
       </c>
       <c r="H41">
-        <v>-0.01425687521118544</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.003470980133893592</v>
+      </c>
+      <c r="I41">
+        <v>0.02138578291818727</v>
+      </c>
+      <c r="J41">
+        <v>0.02688790620170933</v>
+      </c>
+      <c r="K41">
+        <v>0.02812179355515491</v>
+      </c>
+      <c r="L41">
+        <v>-0.006183514450248222</v>
+      </c>
+      <c r="M41">
+        <v>-0.009640761952566293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05301650909156051</v>
+        <v>-0.05203726210028495</v>
       </c>
       <c r="C43">
-        <v>-0.04178379398678749</v>
+        <v>-0.04930780120110391</v>
       </c>
       <c r="D43">
-        <v>0.02304755507177947</v>
+        <v>0.01206273486866668</v>
       </c>
       <c r="E43">
-        <v>0.02906583463525925</v>
+        <v>0.02064787942955165</v>
       </c>
       <c r="F43">
-        <v>0.002404111734682276</v>
+        <v>0.01732289264839765</v>
       </c>
       <c r="G43">
-        <v>-0.005826088085229883</v>
+        <v>-0.04512964134213766</v>
       </c>
       <c r="H43">
-        <v>-0.06139339985866428</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.006980615719982542</v>
+      </c>
+      <c r="I43">
+        <v>0.01983796204961116</v>
+      </c>
+      <c r="J43">
+        <v>0.002331327931901828</v>
+      </c>
+      <c r="K43">
+        <v>0.01740094808550259</v>
+      </c>
+      <c r="L43">
+        <v>0.02858538270821776</v>
+      </c>
+      <c r="M43">
+        <v>-0.01113575358256216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04829136364699779</v>
+        <v>-0.08394050369077151</v>
       </c>
       <c r="C44">
-        <v>-0.02848851551000042</v>
+        <v>-0.05939454995537928</v>
       </c>
       <c r="D44">
-        <v>0.06127099828138007</v>
+        <v>0.0638359673386163</v>
       </c>
       <c r="E44">
-        <v>0.1285155660869536</v>
+        <v>0.100471796060968</v>
       </c>
       <c r="F44">
-        <v>0.02059983338935363</v>
+        <v>0.1679007871443254</v>
       </c>
       <c r="G44">
-        <v>0.00888956124931875</v>
+        <v>-0.01539407323398948</v>
       </c>
       <c r="H44">
-        <v>0.0304298255831343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.1001185195948428</v>
+      </c>
+      <c r="I44">
+        <v>0.0474979409350737</v>
+      </c>
+      <c r="J44">
+        <v>0.009124460735764735</v>
+      </c>
+      <c r="K44">
+        <v>0.0245906026596398</v>
+      </c>
+      <c r="L44">
+        <v>-0.06921225981281355</v>
+      </c>
+      <c r="M44">
+        <v>0.07403844458259091</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01964448032806098</v>
+        <v>-0.03927304362671968</v>
       </c>
       <c r="C46">
-        <v>-0.0338880331920931</v>
+        <v>-0.03993385087890658</v>
       </c>
       <c r="D46">
-        <v>0.01142488046225177</v>
+        <v>0.03998224474284266</v>
       </c>
       <c r="E46">
-        <v>0.05461610690665702</v>
+        <v>0.02983128863900139</v>
       </c>
       <c r="F46">
-        <v>0.02312487041955874</v>
+        <v>0.02312541062777745</v>
       </c>
       <c r="G46">
-        <v>0.00799789155223074</v>
+        <v>-0.02077511231463155</v>
       </c>
       <c r="H46">
-        <v>0.01065975100150606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05320461944486137</v>
+      </c>
+      <c r="I46">
+        <v>-0.02282482543267866</v>
+      </c>
+      <c r="J46">
+        <v>0.0658074145171256</v>
+      </c>
+      <c r="K46">
+        <v>0.001510637938590293</v>
+      </c>
+      <c r="L46">
+        <v>-0.007908016790345265</v>
+      </c>
+      <c r="M46">
+        <v>0.0191033561265064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02939051013939428</v>
+        <v>-0.04434406691821236</v>
       </c>
       <c r="C47">
-        <v>0.007657419833096948</v>
+        <v>-0.02580774657675146</v>
       </c>
       <c r="D47">
-        <v>-0.006205023655968795</v>
+        <v>0.02055836397968074</v>
       </c>
       <c r="E47">
-        <v>0.06566678240420704</v>
+        <v>0.003302062669409155</v>
       </c>
       <c r="F47">
-        <v>0.03231583186447494</v>
+        <v>0.03310379105713577</v>
       </c>
       <c r="G47">
-        <v>0.0303181101804557</v>
+        <v>-0.03487079371769574</v>
       </c>
       <c r="H47">
-        <v>-0.001316552111414889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.0198654307789087</v>
+      </c>
+      <c r="I47">
+        <v>-0.02629558051480079</v>
+      </c>
+      <c r="J47">
+        <v>-0.004856845621806959</v>
+      </c>
+      <c r="K47">
+        <v>0.02768292097993972</v>
+      </c>
+      <c r="L47">
+        <v>0.045086349218471</v>
+      </c>
+      <c r="M47">
+        <v>0.03014947534117133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03399623566194823</v>
+        <v>-0.04212609785743185</v>
       </c>
       <c r="C48">
-        <v>-0.0210922131899521</v>
+        <v>-0.01892895257698288</v>
       </c>
       <c r="D48">
-        <v>0.004183998249368108</v>
+        <v>0.01219979353528099</v>
       </c>
       <c r="E48">
-        <v>0.04417969575941959</v>
+        <v>-0.0006975703375494248</v>
       </c>
       <c r="F48">
-        <v>0.03588267425546859</v>
+        <v>0.05711083897879031</v>
       </c>
       <c r="G48">
-        <v>0.01390697589763555</v>
+        <v>0.006013944062566442</v>
       </c>
       <c r="H48">
-        <v>-0.04549586389429156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.07053933853950979</v>
+      </c>
+      <c r="I48">
+        <v>0.01685038279331683</v>
+      </c>
+      <c r="J48">
+        <v>0.01627029103604948</v>
+      </c>
+      <c r="K48">
+        <v>0.06127754724849903</v>
+      </c>
+      <c r="L48">
+        <v>0.002565613664776581</v>
+      </c>
+      <c r="M48">
+        <v>0.06014948810074285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1863599526232912</v>
+        <v>-0.2232040273756107</v>
       </c>
       <c r="C49">
-        <v>-0.1182661020162738</v>
+        <v>-0.0821299874339418</v>
       </c>
       <c r="D49">
-        <v>0.07423777366587234</v>
+        <v>-0.06708803249108068</v>
       </c>
       <c r="E49">
-        <v>-0.07553602328432039</v>
+        <v>0.02535343059197646</v>
       </c>
       <c r="F49">
-        <v>0.04671039804847246</v>
+        <v>-0.224409443088869</v>
       </c>
       <c r="G49">
-        <v>-0.1675664360180835</v>
+        <v>0.1795177408812172</v>
       </c>
       <c r="H49">
-        <v>0.0915929765170815</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.03532220858600498</v>
+      </c>
+      <c r="I49">
+        <v>0.1290503768932761</v>
+      </c>
+      <c r="J49">
+        <v>-0.1209833270797031</v>
+      </c>
+      <c r="K49">
+        <v>-0.1742770919915371</v>
+      </c>
+      <c r="L49">
+        <v>0.08821522291125682</v>
+      </c>
+      <c r="M49">
+        <v>-0.09830892729829178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.054096344291163</v>
+        <v>-0.04315635058818341</v>
       </c>
       <c r="C50">
-        <v>-0.03081219248815858</v>
+        <v>-0.04314969032858964</v>
       </c>
       <c r="D50">
-        <v>0.007476346393635959</v>
+        <v>0.001655275186362742</v>
       </c>
       <c r="E50">
-        <v>0.01497998151075651</v>
+        <v>-0.01150314489715846</v>
       </c>
       <c r="F50">
-        <v>0.04204795785640456</v>
+        <v>0.04195281591630939</v>
       </c>
       <c r="G50">
-        <v>0.05299127262618566</v>
+        <v>-0.04987357072989362</v>
       </c>
       <c r="H50">
-        <v>-0.01054419772445675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03120629382555872</v>
+      </c>
+      <c r="I50">
+        <v>-0.04470313255827787</v>
+      </c>
+      <c r="J50">
+        <v>0.01879753069446602</v>
+      </c>
+      <c r="K50">
+        <v>0.006033391316311649</v>
+      </c>
+      <c r="L50">
+        <v>-0.04650582817496728</v>
+      </c>
+      <c r="M50">
+        <v>0.02741203663982581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02390278589202401</v>
+        <v>-0.03149047317082472</v>
       </c>
       <c r="C51">
-        <v>-0.007593835111476962</v>
+        <v>-0.004598560255641692</v>
       </c>
       <c r="D51">
-        <v>-0.003181851933513468</v>
+        <v>-0.002559649476400721</v>
       </c>
       <c r="E51">
-        <v>0.01514089411853633</v>
+        <v>0.02065522937772054</v>
       </c>
       <c r="F51">
-        <v>-0.006328299474527573</v>
+        <v>-0.01496192241057627</v>
       </c>
       <c r="G51">
-        <v>-0.01970380602087176</v>
+        <v>0.01360860949883383</v>
       </c>
       <c r="H51">
-        <v>0.03022281677531101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.01330433217363712</v>
+      </c>
+      <c r="I51">
+        <v>0.04073788772670228</v>
+      </c>
+      <c r="J51">
+        <v>-0.07344651897581583</v>
+      </c>
+      <c r="K51">
+        <v>-0.02434049167958562</v>
+      </c>
+      <c r="L51">
+        <v>0.06031515416283335</v>
+      </c>
+      <c r="M51">
+        <v>-0.03565079186411768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.0004373324506747595</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.001166168133966398</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0134505280171802</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.002137233081687431</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.006881140019475702</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.0007941412437876522</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.001855623445502923</v>
+      </c>
+      <c r="I52">
+        <v>0.004073720456796709</v>
+      </c>
+      <c r="J52">
+        <v>-0.004757160030691811</v>
+      </c>
+      <c r="K52">
+        <v>-0.002987858388732304</v>
+      </c>
+      <c r="L52">
+        <v>0.002095722252761356</v>
+      </c>
+      <c r="M52">
+        <v>-0.003582447305387436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1668193208596078</v>
+        <v>-0.1528614247661166</v>
       </c>
       <c r="C53">
-        <v>-0.02473156241088139</v>
+        <v>-0.05047054896165629</v>
       </c>
       <c r="D53">
-        <v>0.03906709309953044</v>
+        <v>-0.01785790426696314</v>
       </c>
       <c r="E53">
-        <v>-0.06177676914504766</v>
+        <v>-0.003185721543044939</v>
       </c>
       <c r="F53">
-        <v>-0.09253265144939396</v>
+        <v>-0.06321080406547069</v>
       </c>
       <c r="G53">
-        <v>0.261119643871807</v>
+        <v>-0.2435784851896636</v>
       </c>
       <c r="H53">
-        <v>-0.05544028338604259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.08877076182875693</v>
+      </c>
+      <c r="I53">
+        <v>-0.08023322593122058</v>
+      </c>
+      <c r="J53">
+        <v>0.00771102826399667</v>
+      </c>
+      <c r="K53">
+        <v>-0.06931778692700495</v>
+      </c>
+      <c r="L53">
+        <v>-0.07421509348843924</v>
+      </c>
+      <c r="M53">
+        <v>-0.02380829683494889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05071880772529121</v>
+        <v>-0.05538805689892192</v>
       </c>
       <c r="C54">
-        <v>-0.03430211399734327</v>
+        <v>-0.02975104796445765</v>
       </c>
       <c r="D54">
-        <v>0.03182620143160155</v>
+        <v>0.01760933531606519</v>
       </c>
       <c r="E54">
-        <v>0.03866372634514446</v>
+        <v>0.01600812129149487</v>
       </c>
       <c r="F54">
-        <v>0.01425966776307611</v>
+        <v>0.09700415897618671</v>
       </c>
       <c r="G54">
-        <v>0.001724237317560693</v>
+        <v>-0.02487921970443099</v>
       </c>
       <c r="H54">
-        <v>-0.02833246376987817</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.06246764726674072</v>
+      </c>
+      <c r="I54">
+        <v>-0.04214164526578248</v>
+      </c>
+      <c r="J54">
+        <v>0.0824241202855481</v>
+      </c>
+      <c r="K54">
+        <v>0.0596025058879326</v>
+      </c>
+      <c r="L54">
+        <v>-0.01019432391919846</v>
+      </c>
+      <c r="M54">
+        <v>0.05082623327895612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.0924057681972917</v>
+        <v>-0.08996722585328641</v>
       </c>
       <c r="C55">
-        <v>-0.008858971491916836</v>
+        <v>-0.04030336064050298</v>
       </c>
       <c r="D55">
-        <v>0.03194863393851401</v>
+        <v>-0.02706105071509147</v>
       </c>
       <c r="E55">
-        <v>-0.003498726427092143</v>
+        <v>0.01287931178362275</v>
       </c>
       <c r="F55">
-        <v>-0.04280378843102527</v>
+        <v>0.009103950654626023</v>
       </c>
       <c r="G55">
-        <v>0.2358319793707275</v>
+        <v>-0.1646161632666097</v>
       </c>
       <c r="H55">
-        <v>-0.02983754182483237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.02886548048989978</v>
+      </c>
+      <c r="I55">
+        <v>-0.05116316142156543</v>
+      </c>
+      <c r="J55">
+        <v>0.008970457533664706</v>
+      </c>
+      <c r="K55">
+        <v>-0.05307913062863499</v>
+      </c>
+      <c r="L55">
+        <v>-0.03198620691729584</v>
+      </c>
+      <c r="M55">
+        <v>0.05571594022743405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1709641481342972</v>
+        <v>-0.1461403440914212</v>
       </c>
       <c r="C56">
-        <v>-0.02080269422151461</v>
+        <v>-0.06932753391349293</v>
       </c>
       <c r="D56">
-        <v>0.06869847684801718</v>
+        <v>-0.03177939936210297</v>
       </c>
       <c r="E56">
-        <v>-0.06031601545711456</v>
+        <v>0.01050359382368876</v>
       </c>
       <c r="F56">
-        <v>-0.1019530499669869</v>
+        <v>-0.03368470601906627</v>
       </c>
       <c r="G56">
-        <v>0.2151737659966502</v>
+        <v>-0.2416846236299237</v>
       </c>
       <c r="H56">
-        <v>-0.06977749506141019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1227256662135435</v>
+      </c>
+      <c r="I56">
+        <v>-0.05507601391312503</v>
+      </c>
+      <c r="J56">
+        <v>0.0107890717228369</v>
+      </c>
+      <c r="K56">
+        <v>-0.03552167875873864</v>
+      </c>
+      <c r="L56">
+        <v>-0.06802173955877945</v>
+      </c>
+      <c r="M56">
+        <v>0.01731171002326096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.05063344594240288</v>
+        <v>-0.04148798680953573</v>
       </c>
       <c r="C58">
-        <v>-0.04003706227439963</v>
+        <v>-0.03277611643790227</v>
       </c>
       <c r="D58">
-        <v>0.03516540840205921</v>
+        <v>0.07937823694284149</v>
       </c>
       <c r="E58">
-        <v>0.3061578856964003</v>
+        <v>0.03039647364308018</v>
       </c>
       <c r="F58">
-        <v>0.204386290868204</v>
+        <v>0.02986608724522957</v>
       </c>
       <c r="G58">
-        <v>-0.1207732342008073</v>
+        <v>0.07564797005764141</v>
       </c>
       <c r="H58">
-        <v>-0.01015677371398312</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.2264447084615659</v>
+      </c>
+      <c r="I58">
+        <v>-0.01362623309864766</v>
+      </c>
+      <c r="J58">
+        <v>-0.3339571541753131</v>
+      </c>
+      <c r="K58">
+        <v>0.4618640442274419</v>
+      </c>
+      <c r="L58">
+        <v>0.1459142567230862</v>
+      </c>
+      <c r="M58">
+        <v>0.1933202735551328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2464656508436915</v>
+        <v>-0.2266535030515555</v>
       </c>
       <c r="C59">
-        <v>0.4091610056130092</v>
+        <v>0.3075491539699033</v>
       </c>
       <c r="D59">
-        <v>0.05586320473939035</v>
+        <v>-0.03898023186523822</v>
       </c>
       <c r="E59">
-        <v>0.04522808995307633</v>
+        <v>0.008572363607666958</v>
       </c>
       <c r="F59">
-        <v>-0.08762785254942132</v>
+        <v>0.02333824329948274</v>
       </c>
       <c r="G59">
-        <v>0.0006895674098238505</v>
+        <v>-0.07103905408155708</v>
       </c>
       <c r="H59">
-        <v>-0.004662114410080753</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.0840676970080064</v>
+      </c>
+      <c r="I59">
+        <v>0.05478399611478607</v>
+      </c>
+      <c r="J59">
+        <v>-0.005892089727791667</v>
+      </c>
+      <c r="K59">
+        <v>-0.01880293084984795</v>
+      </c>
+      <c r="L59">
+        <v>0.03606063145713282</v>
+      </c>
+      <c r="M59">
+        <v>-0.01616411417547079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2442698382546994</v>
+        <v>-0.2427845090402087</v>
       </c>
       <c r="C60">
-        <v>-0.08699220554978192</v>
+        <v>-0.1158865163592763</v>
       </c>
       <c r="D60">
-        <v>0.09318648684018951</v>
+        <v>-0.06670176303904496</v>
       </c>
       <c r="E60">
-        <v>-0.0001000405594472615</v>
+        <v>0.03993234923594411</v>
       </c>
       <c r="F60">
-        <v>-0.008616748385063858</v>
+        <v>-0.1059830988531796</v>
       </c>
       <c r="G60">
-        <v>-0.05439576760877403</v>
+        <v>0.06701882838374811</v>
       </c>
       <c r="H60">
-        <v>0.09238712013435629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.09707750644186987</v>
+      </c>
+      <c r="I60">
+        <v>-0.1175188783495684</v>
+      </c>
+      <c r="J60">
+        <v>-0.08699117538505818</v>
+      </c>
+      <c r="K60">
+        <v>-0.08970375426217984</v>
+      </c>
+      <c r="L60">
+        <v>0.05525507109256122</v>
+      </c>
+      <c r="M60">
+        <v>-0.1844922638520949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07707399949123842</v>
+        <v>-0.08692913822958663</v>
       </c>
       <c r="C61">
-        <v>-0.0575239355972805</v>
+        <v>-0.06224237725330131</v>
       </c>
       <c r="D61">
-        <v>0.01864597505558426</v>
+        <v>-0.04031851157997498</v>
       </c>
       <c r="E61">
-        <v>0.01417724439253057</v>
+        <v>0.01902110991860734</v>
       </c>
       <c r="F61">
-        <v>0.01470550658039801</v>
+        <v>0.1130481213192671</v>
       </c>
       <c r="G61">
-        <v>0.01881873713002399</v>
+        <v>-0.05535072402511855</v>
       </c>
       <c r="H61">
-        <v>-0.01199132027837759</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.04718142055739116</v>
+      </c>
+      <c r="I61">
+        <v>0.07419713915890207</v>
+      </c>
+      <c r="J61">
+        <v>-0.03619823330816405</v>
+      </c>
+      <c r="K61">
+        <v>0.0269994193552968</v>
+      </c>
+      <c r="L61">
+        <v>-0.03136957595345971</v>
+      </c>
+      <c r="M61">
+        <v>-0.02918395737000362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1636913507574988</v>
+        <v>-0.1474042598041027</v>
       </c>
       <c r="C62">
-        <v>-0.04824111961901854</v>
+        <v>-0.07626354759747928</v>
       </c>
       <c r="D62">
-        <v>0.02270974046576384</v>
+        <v>-0.03443434005577838</v>
       </c>
       <c r="E62">
-        <v>-0.1136146540246531</v>
+        <v>-0.02642771105187481</v>
       </c>
       <c r="F62">
-        <v>-0.1060291458292216</v>
+        <v>-0.0220523605820826</v>
       </c>
       <c r="G62">
-        <v>0.2432580104411638</v>
+        <v>-0.208082966441529</v>
       </c>
       <c r="H62">
-        <v>-0.03987943734955448</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.0719244684728322</v>
+      </c>
+      <c r="I62">
+        <v>-0.1000321856653787</v>
+      </c>
+      <c r="J62">
+        <v>0.07082195231771614</v>
+      </c>
+      <c r="K62">
+        <v>-0.08818937250377427</v>
+      </c>
+      <c r="L62">
+        <v>-0.07140394773585525</v>
+      </c>
+      <c r="M62">
+        <v>0.1268982045604211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04533321324576219</v>
+        <v>-0.04531715941117867</v>
       </c>
       <c r="C63">
-        <v>-0.04792243424651704</v>
+        <v>-0.030849461585534</v>
       </c>
       <c r="D63">
-        <v>0.02083566310224666</v>
+        <v>-0.005556176053770554</v>
       </c>
       <c r="E63">
-        <v>0.008374592274841846</v>
+        <v>-0.006516131341666872</v>
       </c>
       <c r="F63">
-        <v>0.0190955675141625</v>
+        <v>0.05987364228754768</v>
       </c>
       <c r="G63">
-        <v>0.04543881922055684</v>
+        <v>-0.009283973956162808</v>
       </c>
       <c r="H63">
-        <v>0.01580327620112358</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.0589761906007825</v>
+      </c>
+      <c r="I63">
+        <v>-0.03457650421640876</v>
+      </c>
+      <c r="J63">
+        <v>0.009349848003570346</v>
+      </c>
+      <c r="K63">
+        <v>0.01518095470069278</v>
+      </c>
+      <c r="L63">
+        <v>-0.01255026910900977</v>
+      </c>
+      <c r="M63">
+        <v>0.03902473961118801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1005167456154331</v>
+        <v>-0.1018758007868048</v>
       </c>
       <c r="C64">
-        <v>-0.03422421715158709</v>
+        <v>-0.04881183687082221</v>
       </c>
       <c r="D64">
-        <v>0.03599888496062345</v>
+        <v>0.001376017429642101</v>
       </c>
       <c r="E64">
-        <v>0.04356792936378503</v>
+        <v>0.04070983109342183</v>
       </c>
       <c r="F64">
-        <v>0.0390570890517471</v>
+        <v>0.05971315230912603</v>
       </c>
       <c r="G64">
-        <v>-0.01010105311437788</v>
+        <v>0.01708928556611391</v>
       </c>
       <c r="H64">
-        <v>0.01598469129172054</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.04878137259723539</v>
+      </c>
+      <c r="I64">
+        <v>0.003109648683524647</v>
+      </c>
+      <c r="J64">
+        <v>-0.02761537158637408</v>
+      </c>
+      <c r="K64">
+        <v>-0.008168634148514183</v>
+      </c>
+      <c r="L64">
+        <v>-0.08759353344028482</v>
+      </c>
+      <c r="M64">
+        <v>-0.06246777484091314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1284533943760009</v>
+        <v>-0.1251951791008918</v>
       </c>
       <c r="C65">
-        <v>-0.06221597913944411</v>
+        <v>-0.03924810087484063</v>
       </c>
       <c r="D65">
-        <v>0.05754776802533035</v>
+        <v>-0.01261571932210394</v>
       </c>
       <c r="E65">
-        <v>0.08720033390048308</v>
+        <v>0.002367329743878646</v>
       </c>
       <c r="F65">
-        <v>0.1873470146758894</v>
+        <v>0.0278264695238012</v>
       </c>
       <c r="G65">
-        <v>-0.03464628538937012</v>
+        <v>0.1815247501614878</v>
       </c>
       <c r="H65">
-        <v>0.2437762348667824</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1098225914422612</v>
+      </c>
+      <c r="I65">
+        <v>-0.6530201715535018</v>
+      </c>
+      <c r="J65">
+        <v>0.02811366967180678</v>
+      </c>
+      <c r="K65">
+        <v>-0.02482654083121633</v>
+      </c>
+      <c r="L65">
+        <v>0.1795864958515237</v>
+      </c>
+      <c r="M65">
+        <v>-0.0836949800602812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1531276671369196</v>
+        <v>-0.1276601668473836</v>
       </c>
       <c r="C66">
-        <v>-0.1484822314499712</v>
+        <v>-0.1303684213262634</v>
       </c>
       <c r="D66">
-        <v>0.05257461876133298</v>
+        <v>-0.09940289219265507</v>
       </c>
       <c r="E66">
-        <v>0.005074063980199777</v>
+        <v>-0.005858983487263748</v>
       </c>
       <c r="F66">
-        <v>-0.04650842715864797</v>
+        <v>0.1616119404068658</v>
       </c>
       <c r="G66">
-        <v>0.007825121728445565</v>
+        <v>-0.04007248450079814</v>
       </c>
       <c r="H66">
-        <v>0.03303158875354658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08096739063300634</v>
+      </c>
+      <c r="I66">
+        <v>0.2059395952661476</v>
+      </c>
+      <c r="J66">
+        <v>-0.1125731380710388</v>
+      </c>
+      <c r="K66">
+        <v>0.02056806271660301</v>
+      </c>
+      <c r="L66">
+        <v>-0.1213364834217951</v>
+      </c>
+      <c r="M66">
+        <v>-0.1726615354316512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07175340595750214</v>
+        <v>-0.08485348512434429</v>
       </c>
       <c r="C67">
-        <v>-0.04527287917726463</v>
+        <v>-0.06723182887309895</v>
       </c>
       <c r="D67">
-        <v>0.001918741862265856</v>
+        <v>0.01664185804304517</v>
       </c>
       <c r="E67">
-        <v>0.01215258933788765</v>
+        <v>0.03546135337527696</v>
       </c>
       <c r="F67">
-        <v>-0.005327361073362232</v>
+        <v>-0.02688319664096889</v>
       </c>
       <c r="G67">
-        <v>-0.02605949373323169</v>
+        <v>-0.02969423054061677</v>
       </c>
       <c r="H67">
-        <v>-0.03236561593657713</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.1078470128071451</v>
+      </c>
+      <c r="I67">
+        <v>0.04113107751889153</v>
+      </c>
+      <c r="J67">
+        <v>0.04655992967502822</v>
+      </c>
+      <c r="K67">
+        <v>-0.1038090490414884</v>
+      </c>
+      <c r="L67">
+        <v>-0.0005311090470062232</v>
+      </c>
+      <c r="M67">
+        <v>-0.1238704270131481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.104773819121063</v>
+        <v>-0.1216333955532473</v>
       </c>
       <c r="C68">
-        <v>0.259524388462911</v>
+        <v>0.2711014410072352</v>
       </c>
       <c r="D68">
-        <v>0.01206589437039929</v>
+        <v>-0.003358002248760663</v>
       </c>
       <c r="E68">
-        <v>0.01724182811424014</v>
+        <v>0.003714874455096261</v>
       </c>
       <c r="F68">
-        <v>0.007576495366930928</v>
+        <v>0.01918873779507518</v>
       </c>
       <c r="G68">
-        <v>0.02788491581769552</v>
+        <v>-0.03065831777635553</v>
       </c>
       <c r="H68">
-        <v>-0.03141909567693195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.02588981668529605</v>
+      </c>
+      <c r="I68">
+        <v>-0.05337329013222505</v>
+      </c>
+      <c r="J68">
+        <v>-0.003373656673553215</v>
+      </c>
+      <c r="K68">
+        <v>0.01117545233180841</v>
+      </c>
+      <c r="L68">
+        <v>-0.01852183886855198</v>
+      </c>
+      <c r="M68">
+        <v>-0.005000010983117703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04564031579239034</v>
+        <v>-0.045125281735875</v>
       </c>
       <c r="C69">
-        <v>-0.02448264423019532</v>
+        <v>-0.02282882645914202</v>
       </c>
       <c r="D69">
-        <v>0.008756269087934924</v>
+        <v>0.01322836375487988</v>
       </c>
       <c r="E69">
-        <v>0.02401153359081167</v>
+        <v>-0.005405601443914228</v>
       </c>
       <c r="F69">
-        <v>-0.0449330872774384</v>
+        <v>0.01841140079679314</v>
       </c>
       <c r="G69">
-        <v>0.02618138172141834</v>
+        <v>-0.03673417346615791</v>
       </c>
       <c r="H69">
-        <v>0.005148287364701317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.0258845665923387</v>
+      </c>
+      <c r="I69">
+        <v>-0.003672867545687017</v>
+      </c>
+      <c r="J69">
+        <v>-0.01019446378435828</v>
+      </c>
+      <c r="K69">
+        <v>0.02149979966599536</v>
+      </c>
+      <c r="L69">
+        <v>0.04822196083327499</v>
+      </c>
+      <c r="M69">
+        <v>0.0375127797813931</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.0322190853698425</v>
+        <v>-0.05406344197395336</v>
       </c>
       <c r="C70">
-        <v>-0.00879018138780641</v>
+        <v>-0.03446931960332138</v>
       </c>
       <c r="D70">
-        <v>-0.01253558461331417</v>
+        <v>-0.03122359047569929</v>
       </c>
       <c r="E70">
-        <v>0.008297624982679169</v>
+        <v>0.001139739160604339</v>
       </c>
       <c r="F70">
-        <v>0.02617394504783397</v>
+        <v>-0.01365887066823002</v>
       </c>
       <c r="G70">
-        <v>-0.09707450225349194</v>
+        <v>0.03657396385124426</v>
       </c>
       <c r="H70">
-        <v>-0.04212784403798563</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.07070659382891574</v>
+      </c>
+      <c r="I70">
+        <v>0.05972058173744628</v>
+      </c>
+      <c r="J70">
+        <v>0.1799547539647048</v>
+      </c>
+      <c r="K70">
+        <v>0.1291101459678726</v>
+      </c>
+      <c r="L70">
+        <v>0.07287784176216026</v>
+      </c>
+      <c r="M70">
+        <v>-0.09814975565155545</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1066945265465311</v>
+        <v>-0.1351350748598982</v>
       </c>
       <c r="C71">
-        <v>0.2786532671333236</v>
+        <v>0.2811049427604918</v>
       </c>
       <c r="D71">
-        <v>0.04302276264440716</v>
+        <v>-0.006646103363494243</v>
       </c>
       <c r="E71">
-        <v>0.006637015892249332</v>
+        <v>0.02528066981938914</v>
       </c>
       <c r="F71">
-        <v>0.01129533130256944</v>
+        <v>0.02361268124657714</v>
       </c>
       <c r="G71">
-        <v>-0.009760697646233283</v>
+        <v>-0.01843543550838667</v>
       </c>
       <c r="H71">
-        <v>-0.0201628866340948</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02619460170171069</v>
+      </c>
+      <c r="I71">
+        <v>-0.01143014409698634</v>
+      </c>
+      <c r="J71">
+        <v>-0.01051969181914712</v>
+      </c>
+      <c r="K71">
+        <v>-0.01072975512331801</v>
+      </c>
+      <c r="L71">
+        <v>-0.004750511088962736</v>
+      </c>
+      <c r="M71">
+        <v>-0.01133428121075339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1868430539866741</v>
+        <v>-0.1451048646809701</v>
       </c>
       <c r="C72">
-        <v>-0.02618668858179038</v>
+        <v>-0.03462009806313118</v>
       </c>
       <c r="D72">
-        <v>-0.2095098657639832</v>
+        <v>0.004255736447491808</v>
       </c>
       <c r="E72">
-        <v>-0.02410607084899464</v>
+        <v>-0.1828666195033536</v>
       </c>
       <c r="F72">
-        <v>-0.004495033083967833</v>
+        <v>0.05617893770243895</v>
       </c>
       <c r="G72">
-        <v>0.005633991173762364</v>
+        <v>-0.0084185381901218</v>
       </c>
       <c r="H72">
-        <v>0.1199739044443347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.05199702430120847</v>
+      </c>
+      <c r="I72">
+        <v>-0.1568673973697742</v>
+      </c>
+      <c r="J72">
+        <v>-0.02359400391497655</v>
+      </c>
+      <c r="K72">
+        <v>-0.07929608882085146</v>
+      </c>
+      <c r="L72">
+        <v>0.04010491273655378</v>
+      </c>
+      <c r="M72">
+        <v>-0.03949468422864274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.268333982101911</v>
+        <v>-0.2359174140240253</v>
       </c>
       <c r="C73">
-        <v>-0.1796301380778732</v>
+        <v>-0.1559448653054837</v>
       </c>
       <c r="D73">
-        <v>0.1687238701270528</v>
+        <v>-0.1556634313238892</v>
       </c>
       <c r="E73">
-        <v>-0.06510978635986422</v>
+        <v>0.08881426291202964</v>
       </c>
       <c r="F73">
-        <v>0.134362667787058</v>
+        <v>-0.3746774965736407</v>
       </c>
       <c r="G73">
-        <v>-0.1116985923237526</v>
+        <v>0.2425170825157094</v>
       </c>
       <c r="H73">
-        <v>0.1627911083115967</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.01463949620788261</v>
+      </c>
+      <c r="I73">
+        <v>0.1010057987981151</v>
+      </c>
+      <c r="J73">
+        <v>-0.5210564611068722</v>
+      </c>
+      <c r="K73">
+        <v>-0.1941312765301497</v>
+      </c>
+      <c r="L73">
+        <v>-0.004439750857059919</v>
+      </c>
+      <c r="M73">
+        <v>0.00740352768590425</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09058821318970244</v>
+        <v>-0.08865819806811628</v>
       </c>
       <c r="C74">
-        <v>-0.02470353307851846</v>
+        <v>-0.0650608766879302</v>
       </c>
       <c r="D74">
-        <v>0.02014512970008811</v>
+        <v>-0.00878239711535766</v>
       </c>
       <c r="E74">
-        <v>-0.02117924626902886</v>
+        <v>-0.002947482079934947</v>
       </c>
       <c r="F74">
-        <v>0.02256105750694133</v>
+        <v>-0.02733834338377392</v>
       </c>
       <c r="G74">
-        <v>0.1659819685697106</v>
+        <v>-0.1482058922152304</v>
       </c>
       <c r="H74">
-        <v>-0.01864562556118048</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.0112085894531914</v>
+      </c>
+      <c r="I74">
+        <v>-0.02692841666124743</v>
+      </c>
+      <c r="J74">
+        <v>-0.04653789833608921</v>
+      </c>
+      <c r="K74">
+        <v>-0.04486542441360792</v>
+      </c>
+      <c r="L74">
+        <v>-0.02770850043626569</v>
+      </c>
+      <c r="M74">
+        <v>0.0593038705840094</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1019598890431417</v>
+        <v>-0.09174995188214358</v>
       </c>
       <c r="C75">
-        <v>-0.02267400174905631</v>
+        <v>-0.05065737189252947</v>
       </c>
       <c r="D75">
-        <v>0.02289843911940016</v>
+        <v>-0.01066076813402449</v>
       </c>
       <c r="E75">
-        <v>-0.01819057766371412</v>
+        <v>-0.009364423621191571</v>
       </c>
       <c r="F75">
-        <v>-0.0872737529697344</v>
+        <v>-0.01858025836688393</v>
       </c>
       <c r="G75">
-        <v>0.09344872348483614</v>
+        <v>-0.1211417161644892</v>
       </c>
       <c r="H75">
-        <v>-0.0532365915502622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07301817242066307</v>
+      </c>
+      <c r="I75">
+        <v>-0.00963189935256387</v>
+      </c>
+      <c r="J75">
+        <v>0.01958951417459885</v>
+      </c>
+      <c r="K75">
+        <v>0.02376390328517859</v>
+      </c>
+      <c r="L75">
+        <v>0.06638617290333652</v>
+      </c>
+      <c r="M75">
+        <v>0.05979646166959091</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1320888337911176</v>
+        <v>-0.1035101225508775</v>
       </c>
       <c r="C76">
-        <v>-0.03662239482994164</v>
+        <v>-0.07137652022311933</v>
       </c>
       <c r="D76">
-        <v>0.02576081059101764</v>
+        <v>-0.009134876468126574</v>
       </c>
       <c r="E76">
-        <v>-0.01787724278586118</v>
+        <v>0.01115904208228742</v>
       </c>
       <c r="F76">
-        <v>-0.075432425957545</v>
+        <v>-0.0497460538012181</v>
       </c>
       <c r="G76">
-        <v>0.2362911163937112</v>
+        <v>-0.2229595217550384</v>
       </c>
       <c r="H76">
-        <v>-0.03441917746549059</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.07419493615778022</v>
+      </c>
+      <c r="I76">
+        <v>-0.06070330928705611</v>
+      </c>
+      <c r="J76">
+        <v>-0.002430086149450722</v>
+      </c>
+      <c r="K76">
+        <v>-0.05837395658752059</v>
+      </c>
+      <c r="L76">
+        <v>-0.1103076746009846</v>
+      </c>
+      <c r="M76">
+        <v>0.07622054501547135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.08056695217380197</v>
+        <v>-0.07286889704904299</v>
       </c>
       <c r="C77">
-        <v>-0.05798906216683637</v>
+        <v>-0.02271191665840143</v>
       </c>
       <c r="D77">
-        <v>-0.07878641335929659</v>
+        <v>0.00150190756104244</v>
       </c>
       <c r="E77">
-        <v>0.3709253925399677</v>
+        <v>0.0351968126490174</v>
       </c>
       <c r="F77">
-        <v>-0.5268265221270035</v>
+        <v>0.4945687515390118</v>
       </c>
       <c r="G77">
-        <v>-0.1666524228913531</v>
+        <v>0.3796419975474014</v>
       </c>
       <c r="H77">
-        <v>0.5111274999769582</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.6281082825018146</v>
+      </c>
+      <c r="I77">
+        <v>-0.01470344232381754</v>
+      </c>
+      <c r="J77">
+        <v>-0.09160111699239078</v>
+      </c>
+      <c r="K77">
+        <v>-0.09698104150063516</v>
+      </c>
+      <c r="L77">
+        <v>-0.1538985594762859</v>
+      </c>
+      <c r="M77">
+        <v>0.1473674444161868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1220957160165904</v>
+        <v>-0.1612196225412452</v>
       </c>
       <c r="C78">
-        <v>-0.09734708230333783</v>
+        <v>-0.1063949225523477</v>
       </c>
       <c r="D78">
-        <v>0.02053932324601703</v>
+        <v>0.1672887583379441</v>
       </c>
       <c r="E78">
-        <v>0.1080650340156224</v>
+        <v>0.1089016910206076</v>
       </c>
       <c r="F78">
-        <v>0.09220658771947174</v>
+        <v>0.08690924071648827</v>
       </c>
       <c r="G78">
-        <v>-0.03063987612302002</v>
+        <v>0.07976258397345229</v>
       </c>
       <c r="H78">
-        <v>-0.04607763043063239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.1635338414037456</v>
+      </c>
+      <c r="I78">
+        <v>0.08751591690475087</v>
+      </c>
+      <c r="J78">
+        <v>0.2046226997144037</v>
+      </c>
+      <c r="K78">
+        <v>-0.1962639962004583</v>
+      </c>
+      <c r="L78">
+        <v>0.2180146247214648</v>
+      </c>
+      <c r="M78">
+        <v>-0.1511205999693849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1472562141000255</v>
+        <v>-0.1373889712864288</v>
       </c>
       <c r="C79">
-        <v>-0.05426332764156118</v>
+        <v>-0.07678378349534103</v>
       </c>
       <c r="D79">
-        <v>0.03328817913979405</v>
+        <v>-0.00436175937625017</v>
       </c>
       <c r="E79">
-        <v>-0.03413751487823943</v>
+        <v>0.005291628435871719</v>
       </c>
       <c r="F79">
-        <v>-0.09392230751418053</v>
+        <v>0.00338149975336375</v>
       </c>
       <c r="G79">
-        <v>0.1482352873200103</v>
+        <v>-0.1715829009731109</v>
       </c>
       <c r="H79">
-        <v>-0.06913568311247144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.07776695933916716</v>
+      </c>
+      <c r="I79">
+        <v>-0.06104971831778411</v>
+      </c>
+      <c r="J79">
+        <v>0.02584599999299813</v>
+      </c>
+      <c r="K79">
+        <v>-0.02549920347520406</v>
+      </c>
+      <c r="L79">
+        <v>-0.007392737117913503</v>
+      </c>
+      <c r="M79">
+        <v>0.07944843662418433</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.01587739035722465</v>
+        <v>-0.03784366672468706</v>
       </c>
       <c r="C80">
-        <v>0.009980943424649422</v>
+        <v>-0.01576242618257351</v>
       </c>
       <c r="D80">
-        <v>-0.006618858917407818</v>
+        <v>-0.05339492586049591</v>
       </c>
       <c r="E80">
-        <v>-0.002502339614244673</v>
+        <v>-0.001749557667902253</v>
       </c>
       <c r="F80">
-        <v>0.04257608697452805</v>
+        <v>0.004928242601389545</v>
       </c>
       <c r="G80">
-        <v>0.01309376029972448</v>
+        <v>-0.0008676279280233628</v>
       </c>
       <c r="H80">
-        <v>0.04839778571179908</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.09591042825029461</v>
+      </c>
+      <c r="I80">
+        <v>0.004431368169187183</v>
+      </c>
+      <c r="J80">
+        <v>0.0257088208936251</v>
+      </c>
+      <c r="K80">
+        <v>0.009232921538231622</v>
+      </c>
+      <c r="L80">
+        <v>0.05677708179306588</v>
+      </c>
+      <c r="M80">
+        <v>-0.007627408073093883</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1173803746608283</v>
+        <v>-0.1206222003985491</v>
       </c>
       <c r="C81">
-        <v>-0.04358018992798416</v>
+        <v>-0.05262989752939169</v>
       </c>
       <c r="D81">
-        <v>0.04080350219830307</v>
+        <v>-0.005702709784758747</v>
       </c>
       <c r="E81">
-        <v>-0.02749063381244479</v>
+        <v>0.006262007157290785</v>
       </c>
       <c r="F81">
-        <v>-0.04588302257033623</v>
+        <v>0.01156691623973618</v>
       </c>
       <c r="G81">
-        <v>0.09695880147821519</v>
+        <v>-0.167941877054604</v>
       </c>
       <c r="H81">
-        <v>-0.01560360891967367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.03917209769124474</v>
+      </c>
+      <c r="I81">
+        <v>0.001722933507110424</v>
+      </c>
+      <c r="J81">
+        <v>-0.01618680146292936</v>
+      </c>
+      <c r="K81">
+        <v>0.03179989940114268</v>
+      </c>
+      <c r="L81">
+        <v>0.008822259506464968</v>
+      </c>
+      <c r="M81">
+        <v>0.02225566038465837</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.112869941606325</v>
+        <v>-0.1173780302998424</v>
       </c>
       <c r="C82">
-        <v>-0.05069459419492549</v>
+        <v>-0.05910039042418501</v>
       </c>
       <c r="D82">
-        <v>0.06303078492905335</v>
+        <v>-0.02259313487616882</v>
       </c>
       <c r="E82">
-        <v>-0.06620542623618467</v>
+        <v>-0.0007540537482099118</v>
       </c>
       <c r="F82">
-        <v>-0.1448136088370244</v>
+        <v>-0.03083481710840933</v>
       </c>
       <c r="G82">
-        <v>0.2419052926543664</v>
+        <v>-0.2565108717963196</v>
       </c>
       <c r="H82">
-        <v>-0.09231890435723705</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.08393045294595729</v>
+      </c>
+      <c r="I82">
+        <v>0.02833504015795599</v>
+      </c>
+      <c r="J82">
+        <v>0.03780553172295108</v>
+      </c>
+      <c r="K82">
+        <v>-0.004712751313007153</v>
+      </c>
+      <c r="L82">
+        <v>-0.05095414091903162</v>
+      </c>
+      <c r="M82">
+        <v>0.1392726957313236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.04897782613940271</v>
+        <v>-0.07456956405663327</v>
       </c>
       <c r="C83">
-        <v>-0.03027146645760859</v>
+        <v>-0.0570355410623216</v>
       </c>
       <c r="D83">
-        <v>0.03966598325217734</v>
+        <v>-0.0091191282544373</v>
       </c>
       <c r="E83">
-        <v>-0.01514256002468293</v>
+        <v>0.02971181612295818</v>
       </c>
       <c r="F83">
-        <v>0.001242333456821142</v>
+        <v>0.0004911130250144888</v>
       </c>
       <c r="G83">
-        <v>-0.1138781911687053</v>
+        <v>0.03422344360731069</v>
       </c>
       <c r="H83">
-        <v>-0.02699473549569853</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.01575307186504181</v>
+      </c>
+      <c r="I83">
+        <v>0.05450604961762931</v>
+      </c>
+      <c r="J83">
+        <v>0.07849785626640936</v>
+      </c>
+      <c r="K83">
+        <v>0.07255524566074066</v>
+      </c>
+      <c r="L83">
+        <v>0.06435489300850726</v>
+      </c>
+      <c r="M83">
+        <v>-0.07043150930482098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.053392779920901</v>
+        <v>-0.04113236934059118</v>
       </c>
       <c r="C84">
-        <v>-0.02432867466832429</v>
+        <v>0.02146292205269536</v>
       </c>
       <c r="D84">
-        <v>-0.008558313821534986</v>
+        <v>-0.002101021527752303</v>
       </c>
       <c r="E84">
-        <v>-0.02547571011788562</v>
+        <v>-0.02834135129557594</v>
       </c>
       <c r="F84">
-        <v>0.1047569636751944</v>
+        <v>0.0189156154293599</v>
       </c>
       <c r="G84">
-        <v>0.02901700483383132</v>
+        <v>0.1393707104195614</v>
       </c>
       <c r="H84">
-        <v>-0.07700791108820423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2633400858192467</v>
+      </c>
+      <c r="I84">
+        <v>0.1822546958348218</v>
+      </c>
+      <c r="J84">
+        <v>0.213273408059648</v>
+      </c>
+      <c r="K84">
+        <v>-0.4041487144834321</v>
+      </c>
+      <c r="L84">
+        <v>-0.1378811071030581</v>
+      </c>
+      <c r="M84">
+        <v>0.2208207417236711</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07747160001104428</v>
+        <v>-0.1073261545989927</v>
       </c>
       <c r="C85">
-        <v>-0.04194812467272062</v>
+        <v>-0.05316016364309073</v>
       </c>
       <c r="D85">
-        <v>0.06274278544585773</v>
+        <v>-0.02071972304853589</v>
       </c>
       <c r="E85">
-        <v>-0.01460458453307861</v>
+        <v>0.04023072288944879</v>
       </c>
       <c r="F85">
-        <v>-0.05613532141151401</v>
+        <v>-0.0002520032959711172</v>
       </c>
       <c r="G85">
-        <v>0.1720377216496407</v>
+        <v>-0.1792822566172174</v>
       </c>
       <c r="H85">
-        <v>-0.01633488959089582</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.0597197111404363</v>
+      </c>
+      <c r="I85">
+        <v>-0.05650835744196943</v>
+      </c>
+      <c r="J85">
+        <v>0.01765629952497193</v>
+      </c>
+      <c r="K85">
+        <v>-0.04591608999370799</v>
+      </c>
+      <c r="L85">
+        <v>0.009186997406895459</v>
+      </c>
+      <c r="M85">
+        <v>0.06139263539692522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03750014668663059</v>
+        <v>-0.07388349718487466</v>
       </c>
       <c r="C86">
-        <v>-0.04567717174255764</v>
+        <v>-0.02470758282360576</v>
       </c>
       <c r="D86">
-        <v>-0.009294293924841081</v>
+        <v>0.01197109486180517</v>
       </c>
       <c r="E86">
-        <v>0.06000069980481077</v>
+        <v>0.03363922763597228</v>
       </c>
       <c r="F86">
-        <v>0.01598749221770207</v>
+        <v>0.07550729581779482</v>
       </c>
       <c r="G86">
-        <v>-0.04235949120568444</v>
+        <v>0.08275688088543552</v>
       </c>
       <c r="H86">
-        <v>0.1004494293765636</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.1435237267072377</v>
+      </c>
+      <c r="I86">
+        <v>0.1765475295781312</v>
+      </c>
+      <c r="J86">
+        <v>0.2540018769683646</v>
+      </c>
+      <c r="K86">
+        <v>-0.3283594392809139</v>
+      </c>
+      <c r="L86">
+        <v>0.2265274106959351</v>
+      </c>
+      <c r="M86">
+        <v>-0.09665920076601112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09878616568459826</v>
+        <v>-0.115894285518204</v>
       </c>
       <c r="C87">
-        <v>-0.06735356958436071</v>
+        <v>-0.06540145163880363</v>
       </c>
       <c r="D87">
-        <v>-0.01936495252121971</v>
+        <v>0.03362315335008845</v>
       </c>
       <c r="E87">
-        <v>0.1569312983702839</v>
+        <v>0.0135028558474458</v>
       </c>
       <c r="F87">
-        <v>-0.08316714480947246</v>
+        <v>0.166450272646914</v>
       </c>
       <c r="G87">
-        <v>-0.04029877096542663</v>
+        <v>0.1558944180753782</v>
       </c>
       <c r="H87">
-        <v>0.1310306804538103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.0816269284354172</v>
+      </c>
+      <c r="I87">
+        <v>0.01283861149051882</v>
+      </c>
+      <c r="J87">
+        <v>0.008515531845176574</v>
+      </c>
+      <c r="K87">
+        <v>-0.01581568728303577</v>
+      </c>
+      <c r="L87">
+        <v>-0.08628402465188903</v>
+      </c>
+      <c r="M87">
+        <v>0.1274114971397189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04701127110593998</v>
+        <v>-0.05932145693918918</v>
       </c>
       <c r="C88">
-        <v>-0.03727712200104427</v>
+        <v>-0.05412777608904037</v>
       </c>
       <c r="D88">
-        <v>0.01716072793601422</v>
+        <v>-0.02818903962462675</v>
       </c>
       <c r="E88">
-        <v>0.007341991200025931</v>
+        <v>0.01603933574075397</v>
       </c>
       <c r="F88">
-        <v>0.007847133895216183</v>
+        <v>0.02973739984962479</v>
       </c>
       <c r="G88">
-        <v>-0.02199343188954258</v>
+        <v>-0.01960343434006182</v>
       </c>
       <c r="H88">
-        <v>-0.0006416418694695648</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.03422733415617996</v>
+      </c>
+      <c r="I88">
+        <v>0.0253885811644652</v>
+      </c>
+      <c r="J88">
+        <v>-0.007615643595480978</v>
+      </c>
+      <c r="K88">
+        <v>0.02164049450160785</v>
+      </c>
+      <c r="L88">
+        <v>0.006480194123089008</v>
+      </c>
+      <c r="M88">
+        <v>-0.02215788294830622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1698527686016717</v>
+        <v>-0.2202287503760904</v>
       </c>
       <c r="C89">
-        <v>0.3122688804015778</v>
+        <v>0.3546112803279363</v>
       </c>
       <c r="D89">
-        <v>0.08031380400978921</v>
+        <v>0.04376752412047094</v>
       </c>
       <c r="E89">
-        <v>0.09696359888837248</v>
+        <v>0.09089524216032732</v>
       </c>
       <c r="F89">
-        <v>0.007284372037661625</v>
+        <v>0.008957099496446481</v>
       </c>
       <c r="G89">
-        <v>-0.04207849442913682</v>
+        <v>-0.001202900988574316</v>
       </c>
       <c r="H89">
-        <v>-0.02987667129689257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02929473100014599</v>
+      </c>
+      <c r="I89">
+        <v>0.06394088970975143</v>
+      </c>
+      <c r="J89">
+        <v>-0.0297775800877699</v>
+      </c>
+      <c r="K89">
+        <v>0.1092099145130782</v>
+      </c>
+      <c r="L89">
+        <v>0.03624645349151214</v>
+      </c>
+      <c r="M89">
+        <v>0.07062455097109722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.127452944196693</v>
+        <v>-0.1486490035174368</v>
       </c>
       <c r="C90">
-        <v>0.2715803205899101</v>
+        <v>0.266391789324687</v>
       </c>
       <c r="D90">
-        <v>0.01584873546020354</v>
+        <v>-0.003681657873317152</v>
       </c>
       <c r="E90">
-        <v>0.07143206304406979</v>
+        <v>0.0208345546046781</v>
       </c>
       <c r="F90">
-        <v>0.009880668657132967</v>
+        <v>0.02963111518238234</v>
       </c>
       <c r="G90">
-        <v>-0.02994459869166648</v>
+        <v>0.02597511153480362</v>
       </c>
       <c r="H90">
-        <v>0.03600605422722129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02197221971052155</v>
+      </c>
+      <c r="I90">
+        <v>0.007088920889394589</v>
+      </c>
+      <c r="J90">
+        <v>-0.04806121429053514</v>
+      </c>
+      <c r="K90">
+        <v>-0.01232897976291052</v>
+      </c>
+      <c r="L90">
+        <v>-0.03380367355411175</v>
+      </c>
+      <c r="M90">
+        <v>-0.07521878318734027</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08518076608836947</v>
+        <v>-0.07527683654157069</v>
       </c>
       <c r="C91">
-        <v>-0.03394982180394328</v>
+        <v>-0.05283111552600452</v>
       </c>
       <c r="D91">
-        <v>0.01957196043469811</v>
+        <v>0.006287412809347588</v>
       </c>
       <c r="E91">
-        <v>0.001013521531619469</v>
+        <v>0.005125031307249251</v>
       </c>
       <c r="F91">
-        <v>-0.03800792101565029</v>
+        <v>-0.01638733356927678</v>
       </c>
       <c r="G91">
-        <v>0.1060934562177767</v>
+        <v>-0.0949403389893571</v>
       </c>
       <c r="H91">
-        <v>-0.03563690139958963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.04480154196650336</v>
+      </c>
+      <c r="I91">
+        <v>-0.01032328583702699</v>
+      </c>
+      <c r="J91">
+        <v>-0.01993067351811686</v>
+      </c>
+      <c r="K91">
+        <v>0.01071627173572123</v>
+      </c>
+      <c r="L91">
+        <v>0.01459372967981169</v>
+      </c>
+      <c r="M91">
+        <v>0.05030826396707284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1478709232131771</v>
+        <v>-0.1680436393409362</v>
       </c>
       <c r="C92">
-        <v>0.3099857513252545</v>
+        <v>0.3059393829934879</v>
       </c>
       <c r="D92">
-        <v>0.06411962730432905</v>
+        <v>0.02986237825626489</v>
       </c>
       <c r="E92">
-        <v>0.02953645295610124</v>
+        <v>0.04872817857200052</v>
       </c>
       <c r="F92">
-        <v>0.05496203508614839</v>
+        <v>9.975777013513629e-05</v>
       </c>
       <c r="G92">
-        <v>-0.00435488368803201</v>
+        <v>-0.03518453133315801</v>
       </c>
       <c r="H92">
-        <v>-0.05930017848417134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03095262359679282</v>
+      </c>
+      <c r="I92">
+        <v>0.01890407635658775</v>
+      </c>
+      <c r="J92">
+        <v>-0.02274808420042455</v>
+      </c>
+      <c r="K92">
+        <v>0.02189509232178393</v>
+      </c>
+      <c r="L92">
+        <v>-0.004497916362540369</v>
+      </c>
+      <c r="M92">
+        <v>0.02774858510297085</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1385616228127313</v>
+        <v>-0.1641259316319464</v>
       </c>
       <c r="C93">
-        <v>0.2494689063429419</v>
+        <v>0.287074253801508</v>
       </c>
       <c r="D93">
-        <v>0.03424719229848601</v>
+        <v>-0.02511051303093727</v>
       </c>
       <c r="E93">
-        <v>0.03268345297830054</v>
+        <v>0.009531470107549093</v>
       </c>
       <c r="F93">
-        <v>0.01320858149457724</v>
+        <v>0.01282236042147886</v>
       </c>
       <c r="G93">
-        <v>-0.05693376494625502</v>
+        <v>0.008721212830056503</v>
       </c>
       <c r="H93">
-        <v>-0.00186868491318582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01876276422473185</v>
+      </c>
+      <c r="I93">
+        <v>0.01330553444154073</v>
+      </c>
+      <c r="J93">
+        <v>0.01393330313668823</v>
+      </c>
+      <c r="K93">
+        <v>-0.007929498593823031</v>
+      </c>
+      <c r="L93">
+        <v>-0.0072938513164484</v>
+      </c>
+      <c r="M93">
+        <v>-0.04572651809565485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.088109594289346</v>
+        <v>-0.1056546991081972</v>
       </c>
       <c r="C94">
-        <v>-0.06352929734834455</v>
+        <v>-0.07657146086874127</v>
       </c>
       <c r="D94">
-        <v>0.02297602570519236</v>
+        <v>0.008460722737378036</v>
       </c>
       <c r="E94">
-        <v>0.009370235800083468</v>
+        <v>0.02672818454372018</v>
       </c>
       <c r="F94">
-        <v>-0.06188694027283451</v>
+        <v>-0.03831875616588785</v>
       </c>
       <c r="G94">
-        <v>0.1317434491162546</v>
+        <v>-0.1308375388182366</v>
       </c>
       <c r="H94">
-        <v>-0.08246803359213689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.03211427092946408</v>
+      </c>
+      <c r="I94">
+        <v>-0.0122627763185073</v>
+      </c>
+      <c r="J94">
+        <v>-0.004711995441472851</v>
+      </c>
+      <c r="K94">
+        <v>0.02506245032317677</v>
+      </c>
+      <c r="L94">
+        <v>0.06046395207895664</v>
+      </c>
+      <c r="M94">
+        <v>0.04923417390203053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.0977316363160317</v>
+        <v>-0.1360382152845145</v>
       </c>
       <c r="C95">
-        <v>-0.1068535427985071</v>
+        <v>-0.0788751465031895</v>
       </c>
       <c r="D95">
-        <v>0.0852286572629912</v>
+        <v>0.007687769722166099</v>
       </c>
       <c r="E95">
-        <v>0.0203808675974766</v>
+        <v>0.06251689709178297</v>
       </c>
       <c r="F95">
-        <v>0.06710931048414431</v>
+        <v>0.04868057909417234</v>
       </c>
       <c r="G95">
-        <v>-0.01054021222437758</v>
+        <v>0.1529587167330636</v>
       </c>
       <c r="H95">
-        <v>0.05963162368834603</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.157856511303849</v>
+      </c>
+      <c r="I95">
+        <v>0.01819165669303985</v>
+      </c>
+      <c r="J95">
+        <v>0.004176244644702385</v>
+      </c>
+      <c r="K95">
+        <v>0.009689770029210804</v>
+      </c>
+      <c r="L95">
+        <v>0.1487694572067677</v>
+      </c>
+      <c r="M95">
+        <v>0.5125370814575607</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3192635595489856</v>
+        <v>-0.1769334745502103</v>
       </c>
       <c r="C97">
-        <v>-0.003728231398005285</v>
+        <v>-0.00322986465267235</v>
       </c>
       <c r="D97">
-        <v>-0.8557735238865716</v>
+        <v>0.1153697990962779</v>
       </c>
       <c r="E97">
-        <v>-0.2104553357614229</v>
+        <v>-0.9346612966422811</v>
       </c>
       <c r="F97">
-        <v>0.103608624919652</v>
+        <v>0.01980472716946316</v>
       </c>
       <c r="G97">
-        <v>-0.04358187271149405</v>
+        <v>0.05997238216662021</v>
       </c>
       <c r="H97">
-        <v>0.04543955200139745</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.05058878980610226</v>
+      </c>
+      <c r="I97">
+        <v>0.05987905626520296</v>
+      </c>
+      <c r="J97">
+        <v>-0.03905295265015959</v>
+      </c>
+      <c r="K97">
+        <v>0.02036295298132004</v>
+      </c>
+      <c r="L97">
+        <v>0.01080135085219962</v>
+      </c>
+      <c r="M97">
+        <v>0.004190045968385942</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2570965960992591</v>
+        <v>-0.2588674561894364</v>
       </c>
       <c r="C98">
-        <v>-0.1212111632933894</v>
+        <v>-0.1245464709283933</v>
       </c>
       <c r="D98">
-        <v>0.1959042199396202</v>
+        <v>-0.03061004942150494</v>
       </c>
       <c r="E98">
-        <v>-0.3511342316646581</v>
+        <v>0.02632574997676951</v>
       </c>
       <c r="F98">
-        <v>0.0999432008802266</v>
+        <v>-0.4312587118197591</v>
       </c>
       <c r="G98">
-        <v>-0.5150263219403384</v>
+        <v>0.3071458720265439</v>
       </c>
       <c r="H98">
-        <v>-0.2332499137078771</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1225198242430441</v>
+      </c>
+      <c r="I98">
+        <v>0.08412624226875436</v>
+      </c>
+      <c r="J98">
+        <v>0.4617775116134756</v>
+      </c>
+      <c r="K98">
+        <v>0.4014715560855926</v>
+      </c>
+      <c r="L98">
+        <v>-0.3093476640907517</v>
+      </c>
+      <c r="M98">
+        <v>0.09337083672366529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06464419392086039</v>
+        <v>-0.07382688029272599</v>
       </c>
       <c r="C99">
-        <v>-0.07169185874190072</v>
+        <v>-0.06150262252534404</v>
       </c>
       <c r="D99">
-        <v>-0.06847019357775717</v>
+        <v>0.03073825805605432</v>
       </c>
       <c r="E99">
-        <v>0.07216325240231221</v>
+        <v>0.003509205960655586</v>
       </c>
       <c r="F99">
-        <v>-0.6059864506007291</v>
+        <v>0.01343341519374143</v>
       </c>
       <c r="G99">
-        <v>-0.3173437855130605</v>
+        <v>-0.05100658508318917</v>
       </c>
       <c r="H99">
-        <v>-0.4940627877051535</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.3246571123533444</v>
+      </c>
+      <c r="I99">
+        <v>0.2574506798030979</v>
+      </c>
+      <c r="J99">
+        <v>0.1156299580125678</v>
+      </c>
+      <c r="K99">
+        <v>0.2262967700170397</v>
+      </c>
+      <c r="L99">
+        <v>0.6390512129639728</v>
+      </c>
+      <c r="M99">
+        <v>-0.1341459158767208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.0459632114949075</v>
+        <v>-0.04522399556563486</v>
       </c>
       <c r="C101">
-        <v>-0.008977432790978627</v>
+        <v>-0.02260866825097414</v>
       </c>
       <c r="D101">
-        <v>0.01249041425170329</v>
+        <v>-0.00139591726412854</v>
       </c>
       <c r="E101">
-        <v>0.02716209601391027</v>
+        <v>0.0207447174062878</v>
       </c>
       <c r="F101">
-        <v>0.03884976186969979</v>
+        <v>0.04896762855174864</v>
       </c>
       <c r="G101">
-        <v>0.01867393054510749</v>
+        <v>-0.05008106421906147</v>
       </c>
       <c r="H101">
-        <v>0.009367591536262701</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.04609987356466435</v>
+      </c>
+      <c r="I101">
+        <v>-0.02204798710443756</v>
+      </c>
+      <c r="J101">
+        <v>0.02321224131988247</v>
+      </c>
+      <c r="K101">
+        <v>0.007185424693996171</v>
+      </c>
+      <c r="L101">
+        <v>-0.02155457834982934</v>
+      </c>
+      <c r="M101">
+        <v>0.006107636067895705</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
